--- a/template Excel/Sales/Products.xlsx
+++ b/template Excel/Sales/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB7ADD-D9B3-4521-85EA-B2E4CE3442F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DED635-0F78-4747-9738-3E852A61E194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E4471F51-4795-4285-8DC8-D62F260FF7BB}"/>
   </bookViews>
@@ -38,79 +38,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Apple iPhone 13</t>
+  </si>
+  <si>
+    <t>Latest model of iPhone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy</t>
+  </si>
+  <si>
+    <t>Popular Android smartphone</t>
+  </si>
+  <si>
+    <t>Sony Headphones</t>
+  </si>
+  <si>
+    <t>Noise-cancelling headphones</t>
+  </si>
+  <si>
+    <t>Dell Laptop</t>
+  </si>
+  <si>
+    <t>High-performance laptop</t>
+  </si>
+  <si>
+    <t>HP Printer</t>
+  </si>
+  <si>
+    <t>All-in-one printer</t>
+  </si>
+  <si>
+    <t>Logitech Mouse</t>
+  </si>
+  <si>
+    <t>Wireless mouse</t>
+  </si>
+  <si>
+    <t>Asus Monitor</t>
+  </si>
+  <si>
+    <t>24-inch full HD monitor</t>
+  </si>
+  <si>
+    <t>Google Nest</t>
+  </si>
+  <si>
+    <t>Smart home assistant</t>
+  </si>
+  <si>
+    <t>Apple AirPods</t>
+  </si>
+  <si>
+    <t>Wireless earbuds</t>
+  </si>
+  <si>
+    <t>Amazon Echo</t>
+  </si>
+  <si>
+    <t>Smart speaker with Alexa</t>
+  </si>
+  <si>
     <t>ProductId</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13</t>
-  </si>
-  <si>
-    <t>Latest model of iPhone</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>Popular Android smartphone</t>
-  </si>
-  <si>
-    <t>Sony Headphones</t>
-  </si>
-  <si>
-    <t>Noise-cancelling headphones</t>
-  </si>
-  <si>
-    <t>Dell Laptop</t>
-  </si>
-  <si>
-    <t>High-performance laptop</t>
-  </si>
-  <si>
-    <t>HP Printer</t>
-  </si>
-  <si>
-    <t>All-in-one printer</t>
-  </si>
-  <si>
-    <t>Logitech Mouse</t>
-  </si>
-  <si>
-    <t>Wireless mouse</t>
-  </si>
-  <si>
-    <t>Asus Monitor</t>
-  </si>
-  <si>
-    <t>24-inch full HD monitor</t>
-  </si>
-  <si>
-    <t>Google Nest</t>
-  </si>
-  <si>
-    <t>Smart home assistant</t>
-  </si>
-  <si>
-    <t>Apple AirPods</t>
-  </si>
-  <si>
-    <t>Wireless earbuds</t>
-  </si>
-  <si>
-    <t>Amazon Echo</t>
-  </si>
-  <si>
-    <t>Smart speaker with Alexa</t>
   </si>
 </sst>
 </file>
@@ -498,9 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32BDA008-7004-450C-B6DB-8C7755AA48A2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -513,19 +511,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,10 +531,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>999.9</v>
@@ -550,10 +548,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>899.9</v>
@@ -567,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>199.9</v>
@@ -584,10 +582,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>1299.9000000000001</v>
@@ -601,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>149.9</v>
@@ -618,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>29.9</v>
@@ -635,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>199.9</v>
@@ -652,10 +650,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>99.9</v>
@@ -669,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="2">
         <v>159.9</v>
@@ -686,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="2">
         <v>89.9</v>
